--- a/data_indexpoints_tidy/tallmateriale_953.xlsx
+++ b/data_indexpoints_tidy/tallmateriale_953.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programmering\R\byindeks\data_indexpoints_tidy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7CF76C-F20D-4B09-9EE8-7A812BED03FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC415439-3387-4A29-A5AA-EBF11D057A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="punkt_adt" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="by_2_aar_glid_indeks" sheetId="7" r:id="rId7"/>
     <sheet name="by_1_aar_glid_indeks" sheetId="8" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">punkt_3_aar_glid_indeks!$A$1:$J$490</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -1246,9 +1249,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1286,9 +1289,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1321,26 +1324,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1373,26 +1359,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1568,7 +1537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -32496,13 +32465,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J490"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -32537,7 +32519,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -32569,7 +32551,7 @@
         <v>2.4575678802948309</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -32601,7 +32583,7 @@
         <v>2.4575678802948309</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -32633,7 +32615,7 @@
         <v>2.4575678802948309</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -32665,7 +32647,7 @@
         <v>2.4575678802948309</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -32697,7 +32679,7 @@
         <v>2.4575678802948309</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -32729,7 +32711,7 @@
         <v>2.4575678802948309</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -32761,7 +32743,7 @@
         <v>2.4575678802948309</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -32793,7 +32775,7 @@
         <v>2.4575678802948309</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -32825,7 +32807,7 @@
         <v>2.4575678802948309</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -32857,7 +32839,7 @@
         <v>2.4575678802948309</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -32889,7 +32871,7 @@
         <v>2.394315869037178</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -32921,7 +32903,7 @@
         <v>2.394315869037178</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -32953,7 +32935,7 @@
         <v>2.394315869037178</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -32985,7 +32967,7 @@
         <v>2.394315869037178</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -33017,7 +32999,7 @@
         <v>2.394315869037178</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -33049,7 +33031,7 @@
         <v>2.394315869037178</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -33081,7 +33063,7 @@
         <v>2.394315869037178</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -33113,7 +33095,7 @@
         <v>2.394315869037178</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -33145,7 +33127,7 @@
         <v>2.394315869037178</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -33177,7 +33159,7 @@
         <v>2.394315869037178</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -33209,7 +33191,7 @@
         <v>2.367723695582447</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -33241,7 +33223,7 @@
         <v>2.367723695582447</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -33273,7 +33255,7 @@
         <v>2.367723695582447</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -33305,7 +33287,7 @@
         <v>2.367723695582447</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -33337,7 +33319,7 @@
         <v>2.367723695582447</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -33369,7 +33351,7 @@
         <v>2.367723695582447</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -33401,7 +33383,7 @@
         <v>2.367723695582447</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -33433,7 +33415,7 @@
         <v>2.367723695582447</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -33465,7 +33447,7 @@
         <v>2.367723695582447</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -33497,7 +33479,7 @@
         <v>2.367723695582447</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -33529,7 +33511,7 @@
         <v>1.6181644901958721</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -33561,7 +33543,7 @@
         <v>1.6181644901958721</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -33593,7 +33575,7 @@
         <v>1.6181644901958721</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -33625,7 +33607,7 @@
         <v>1.6181644901958721</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -33657,7 +33639,7 @@
         <v>1.6181644901958721</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -33689,7 +33671,7 @@
         <v>1.6181644901958721</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -33721,7 +33703,7 @@
         <v>1.6181644901958721</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -33753,7 +33735,7 @@
         <v>1.6181644901958721</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -33785,7 +33767,7 @@
         <v>1.6181644901958721</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -33817,7 +33799,7 @@
         <v>1.6181644901958721</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -33849,7 +33831,7 @@
         <v>1.063873746012556</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -33881,7 +33863,7 @@
         <v>1.063873746012556</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -33913,7 +33895,7 @@
         <v>1.063873746012556</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -33945,7 +33927,7 @@
         <v>1.063873746012556</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -33977,7 +33959,7 @@
         <v>1.063873746012556</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -34009,7 +33991,7 @@
         <v>1.063873746012556</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -34041,7 +34023,7 @@
         <v>1.063873746012556</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -34073,7 +34055,7 @@
         <v>1.063873746012556</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -34105,7 +34087,7 @@
         <v>1.063873746012556</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -34137,7 +34119,7 @@
         <v>1.063873746012556</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -34169,7 +34151,7 @@
         <v>0.6232707303595042</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -34201,7 +34183,7 @@
         <v>0.6232707303595042</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -34233,7 +34215,7 @@
         <v>0.6232707303595042</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -34265,7 +34247,7 @@
         <v>0.6232707303595042</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -34297,7 +34279,7 @@
         <v>0.6232707303595042</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -34329,7 +34311,7 @@
         <v>0.6232707303595042</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -34361,7 +34343,7 @@
         <v>0.6232707303595042</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>43</v>
       </c>
@@ -34393,7 +34375,7 @@
         <v>0.6232707303595042</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -34425,7 +34407,7 @@
         <v>0.6232707303595042</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>29</v>
       </c>
@@ -34457,7 +34439,7 @@
         <v>0.6232707303595042</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -34489,7 +34471,7 @@
         <v>0.36342025006381729</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -34521,7 +34503,7 @@
         <v>0.36342025006381729</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -34553,7 +34535,7 @@
         <v>0.36342025006381729</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>34</v>
       </c>
@@ -34585,7 +34567,7 @@
         <v>0.36342025006381729</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>47</v>
       </c>
@@ -34617,7 +34599,7 @@
         <v>0.36342025006381729</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -34649,7 +34631,7 @@
         <v>0.36342025006381729</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>60</v>
       </c>
@@ -34681,7 +34663,7 @@
         <v>0.36342025006381729</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>43</v>
       </c>
@@ -34713,7 +34695,7 @@
         <v>0.36342025006381729</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -34745,7 +34727,7 @@
         <v>0.36342025006381729</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>29</v>
       </c>
@@ -34777,7 +34759,7 @@
         <v>0.36342025006381729</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>52</v>
       </c>
@@ -34809,7 +34791,7 @@
         <v>0.25200774502041062</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>38</v>
       </c>
@@ -34841,7 +34823,7 @@
         <v>0.25200774502041062</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -34873,7 +34855,7 @@
         <v>0.25200774502041062</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -34905,7 +34887,7 @@
         <v>0.25200774502041062</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -34937,7 +34919,7 @@
         <v>0.25200774502041062</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -34969,7 +34951,7 @@
         <v>0.25200774502041062</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>60</v>
       </c>
@@ -35001,7 +34983,7 @@
         <v>0.25200774502041062</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>43</v>
       </c>
@@ -35033,7 +35015,7 @@
         <v>0.25200774502041062</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>56</v>
       </c>
@@ -35065,7 +35047,7 @@
         <v>0.25200774502041062</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>29</v>
       </c>
@@ -35097,7 +35079,7 @@
         <v>0.25200774502041062</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>52</v>
       </c>
@@ -35129,7 +35111,7 @@
         <v>-1.356432360161142E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>38</v>
       </c>
@@ -35161,7 +35143,7 @@
         <v>-1.356432360161142E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -35193,7 +35175,7 @@
         <v>-1.356432360161142E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>34</v>
       </c>
@@ -35225,7 +35207,7 @@
         <v>-1.356432360161142E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>47</v>
       </c>
@@ -35257,7 +35239,7 @@
         <v>-1.356432360161142E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -35289,7 +35271,7 @@
         <v>-1.356432360161142E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>60</v>
       </c>
@@ -35321,7 +35303,7 @@
         <v>-1.356432360161142E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>43</v>
       </c>
@@ -35353,7 +35335,7 @@
         <v>-1.356432360161142E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>56</v>
       </c>
@@ -35385,7 +35367,7 @@
         <v>-1.356432360161142E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>29</v>
       </c>
@@ -35417,7 +35399,7 @@
         <v>-1.356432360161142E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>52</v>
       </c>
@@ -35449,7 +35431,7 @@
         <v>-0.24559400975967541</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>38</v>
       </c>
@@ -35481,7 +35463,7 @@
         <v>-0.24559400975967541</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -35513,7 +35495,7 @@
         <v>-0.24559400975967541</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>34</v>
       </c>
@@ -35545,7 +35527,7 @@
         <v>-0.24559400975967541</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>47</v>
       </c>
@@ -35577,7 +35559,7 @@
         <v>-0.24559400975967541</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -35609,7 +35591,7 @@
         <v>-0.24559400975967541</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>60</v>
       </c>
@@ -35641,7 +35623,7 @@
         <v>-0.24559400975967541</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>43</v>
       </c>
@@ -35673,7 +35655,7 @@
         <v>-0.24559400975967541</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>56</v>
       </c>
@@ -35705,7 +35687,7 @@
         <v>-0.24559400975967541</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>29</v>
       </c>
@@ -35737,7 +35719,7 @@
         <v>-0.24559400975967541</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>52</v>
       </c>
@@ -35769,7 +35751,7 @@
         <v>-0.42803340379340421</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>38</v>
       </c>
@@ -35801,7 +35783,7 @@
         <v>-0.42803340379340421</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -35833,7 +35815,7 @@
         <v>-0.42803340379340421</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>34</v>
       </c>
@@ -35865,7 +35847,7 @@
         <v>-0.42803340379340421</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>47</v>
       </c>
@@ -35897,7 +35879,7 @@
         <v>-0.42803340379340421</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>12</v>
       </c>
@@ -35929,7 +35911,7 @@
         <v>-0.42803340379340421</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>60</v>
       </c>
@@ -35961,7 +35943,7 @@
         <v>-0.42803340379340421</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>43</v>
       </c>
@@ -35993,7 +35975,7 @@
         <v>-0.42803340379340421</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>56</v>
       </c>
@@ -36025,7 +36007,7 @@
         <v>-0.42803340379340421</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>29</v>
       </c>
@@ -36057,7 +36039,7 @@
         <v>-0.42803340379340421</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>52</v>
       </c>
@@ -36089,7 +36071,7 @@
         <v>-0.7610870043864848</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>38</v>
       </c>
@@ -36121,7 +36103,7 @@
         <v>-0.7610870043864848</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>19</v>
       </c>
@@ -36153,7 +36135,7 @@
         <v>-0.7610870043864848</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>34</v>
       </c>
@@ -36185,7 +36167,7 @@
         <v>-0.7610870043864848</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>47</v>
       </c>
@@ -36217,7 +36199,7 @@
         <v>-0.7610870043864848</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>12</v>
       </c>
@@ -36249,7 +36231,7 @@
         <v>-0.7610870043864848</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>60</v>
       </c>
@@ -36281,7 +36263,7 @@
         <v>-0.7610870043864848</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>43</v>
       </c>
@@ -36313,7 +36295,7 @@
         <v>-0.7610870043864848</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>56</v>
       </c>
@@ -36345,7 +36327,7 @@
         <v>-0.7610870043864848</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>29</v>
       </c>
@@ -36377,7 +36359,7 @@
         <v>-0.7610870043864848</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>52</v>
       </c>
@@ -36409,7 +36391,7 @@
         <v>-1.098746934635308</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>38</v>
       </c>
@@ -36441,7 +36423,7 @@
         <v>-1.098746934635308</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>19</v>
       </c>
@@ -36473,7 +36455,7 @@
         <v>-1.098746934635308</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>34</v>
       </c>
@@ -36505,7 +36487,7 @@
         <v>-1.098746934635308</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>47</v>
       </c>
@@ -36537,7 +36519,7 @@
         <v>-1.098746934635308</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -36569,7 +36551,7 @@
         <v>-1.098746934635308</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>60</v>
       </c>
@@ -36601,7 +36583,7 @@
         <v>-1.098746934635308</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>43</v>
       </c>
@@ -36633,7 +36615,7 @@
         <v>-1.098746934635308</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>56</v>
       </c>
@@ -36665,7 +36647,7 @@
         <v>-1.098746934635308</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>29</v>
       </c>
@@ -36697,7 +36679,7 @@
         <v>-1.098746934635308</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>52</v>
       </c>
@@ -36729,7 +36711,7 @@
         <v>-1.609658347651288</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>38</v>
       </c>
@@ -36761,7 +36743,7 @@
         <v>-1.609658347651288</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>19</v>
       </c>
@@ -36793,7 +36775,7 @@
         <v>-1.609658347651288</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>34</v>
       </c>
@@ -36825,7 +36807,7 @@
         <v>-1.609658347651288</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>47</v>
       </c>
@@ -36857,7 +36839,7 @@
         <v>-1.609658347651288</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>12</v>
       </c>
@@ -36889,7 +36871,7 @@
         <v>-1.609658347651288</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>60</v>
       </c>
@@ -36921,7 +36903,7 @@
         <v>-1.609658347651288</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>43</v>
       </c>
@@ -36953,7 +36935,7 @@
         <v>-1.609658347651288</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>56</v>
       </c>
@@ -36985,7 +36967,7 @@
         <v>-1.609658347651288</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>29</v>
       </c>
@@ -37017,7 +36999,7 @@
         <v>-1.609658347651288</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>52</v>
       </c>
@@ -37049,7 +37031,7 @@
         <v>-2.0946114564926899</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>38</v>
       </c>
@@ -37081,7 +37063,7 @@
         <v>-2.0946114564926899</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>19</v>
       </c>
@@ -37113,7 +37095,7 @@
         <v>-2.0946114564926899</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>34</v>
       </c>
@@ -37145,7 +37127,7 @@
         <v>-2.0946114564926899</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>47</v>
       </c>
@@ -37177,7 +37159,7 @@
         <v>-2.0946114564926899</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>12</v>
       </c>
@@ -37209,7 +37191,7 @@
         <v>-2.0946114564926899</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>60</v>
       </c>
@@ -37241,7 +37223,7 @@
         <v>-2.0946114564926899</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>43</v>
       </c>
@@ -37273,7 +37255,7 @@
         <v>-2.0946114564926899</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>56</v>
       </c>
@@ -37305,7 +37287,7 @@
         <v>-2.0946114564926899</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>29</v>
       </c>
@@ -37337,7 +37319,7 @@
         <v>-2.0946114564926899</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>52</v>
       </c>
@@ -37369,7 +37351,7 @@
         <v>-2.550076072296859</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>38</v>
       </c>
@@ -37401,7 +37383,7 @@
         <v>-2.550076072296859</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -37433,7 +37415,7 @@
         <v>-2.550076072296859</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>34</v>
       </c>
@@ -37465,7 +37447,7 @@
         <v>-2.550076072296859</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>47</v>
       </c>
@@ -37497,7 +37479,7 @@
         <v>-2.550076072296859</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>12</v>
       </c>
@@ -37529,7 +37511,7 @@
         <v>-2.550076072296859</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>60</v>
       </c>
@@ -37561,7 +37543,7 @@
         <v>-2.550076072296859</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>43</v>
       </c>
@@ -37593,7 +37575,7 @@
         <v>-2.550076072296859</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>56</v>
       </c>
@@ -37625,7 +37607,7 @@
         <v>-2.550076072296859</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>29</v>
       </c>
@@ -37657,7 +37639,7 @@
         <v>-2.550076072296859</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>52</v>
       </c>
@@ -37689,7 +37671,7 @@
         <v>-3.260478282313251</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>38</v>
       </c>
@@ -37721,7 +37703,7 @@
         <v>-3.260478282313251</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -37753,7 +37735,7 @@
         <v>-3.260478282313251</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>34</v>
       </c>
@@ -37785,7 +37767,7 @@
         <v>-3.260478282313251</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>47</v>
       </c>
@@ -37817,7 +37799,7 @@
         <v>-3.260478282313251</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>12</v>
       </c>
@@ -37849,7 +37831,7 @@
         <v>-3.260478282313251</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>60</v>
       </c>
@@ -37881,7 +37863,7 @@
         <v>-3.260478282313251</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>43</v>
       </c>
@@ -37913,7 +37895,7 @@
         <v>-3.260478282313251</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>56</v>
       </c>
@@ -37945,7 +37927,7 @@
         <v>-3.260478282313251</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>29</v>
       </c>
@@ -37977,7 +37959,7 @@
         <v>-3.260478282313251</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>52</v>
       </c>
@@ -38009,7 +37991,7 @@
         <v>-3.641448887862786</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>38</v>
       </c>
@@ -38041,7 +38023,7 @@
         <v>-3.641448887862786</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>19</v>
       </c>
@@ -38073,7 +38055,7 @@
         <v>-3.641448887862786</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>34</v>
       </c>
@@ -38105,7 +38087,7 @@
         <v>-3.641448887862786</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>47</v>
       </c>
@@ -38137,7 +38119,7 @@
         <v>-3.641448887862786</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>12</v>
       </c>
@@ -38169,7 +38151,7 @@
         <v>-3.641448887862786</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>60</v>
       </c>
@@ -38201,7 +38183,7 @@
         <v>-3.641448887862786</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>43</v>
       </c>
@@ -38233,7 +38215,7 @@
         <v>-3.641448887862786</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>56</v>
       </c>
@@ -38265,7 +38247,7 @@
         <v>-3.641448887862786</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>29</v>
       </c>
@@ -38297,7 +38279,7 @@
         <v>-3.641448887862786</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>52</v>
       </c>
@@ -38329,7 +38311,7 @@
         <v>-3.7578660862531699</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>38</v>
       </c>
@@ -38361,7 +38343,7 @@
         <v>-3.7578660862531699</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>19</v>
       </c>
@@ -38393,7 +38375,7 @@
         <v>-3.7578660862531699</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>34</v>
       </c>
@@ -38425,7 +38407,7 @@
         <v>-3.7578660862531699</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>47</v>
       </c>
@@ -38457,7 +38439,7 @@
         <v>-3.7578660862531699</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>12</v>
       </c>
@@ -38489,7 +38471,7 @@
         <v>-3.7578660862531699</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>60</v>
       </c>
@@ -38521,7 +38503,7 @@
         <v>-3.7578660862531699</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>43</v>
       </c>
@@ -38553,7 +38535,7 @@
         <v>-3.7578660862531699</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>56</v>
       </c>
@@ -38585,7 +38567,7 @@
         <v>-3.7578660862531699</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>29</v>
       </c>
@@ -38617,7 +38599,7 @@
         <v>-3.7578660862531699</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>52</v>
       </c>
@@ -38649,7 +38631,7 @@
         <v>-3.7884874010896352</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>38</v>
       </c>
@@ -38681,7 +38663,7 @@
         <v>-3.7884874010896352</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>19</v>
       </c>
@@ -38713,7 +38695,7 @@
         <v>-3.7884874010896352</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>34</v>
       </c>
@@ -38745,7 +38727,7 @@
         <v>-3.7884874010896352</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>47</v>
       </c>
@@ -38777,7 +38759,7 @@
         <v>-3.7884874010896352</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>12</v>
       </c>
@@ -38809,7 +38791,7 @@
         <v>-3.7884874010896352</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>60</v>
       </c>
@@ -38841,7 +38823,7 @@
         <v>-3.7884874010896352</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>43</v>
       </c>
@@ -38873,7 +38855,7 @@
         <v>-3.7884874010896352</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>56</v>
       </c>
@@ -38905,7 +38887,7 @@
         <v>-3.7884874010896352</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>29</v>
       </c>
@@ -38937,7 +38919,7 @@
         <v>-3.7884874010896352</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>52</v>
       </c>
@@ -38969,7 +38951,7 @@
         <v>-3.930160378507785</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>38</v>
       </c>
@@ -39001,7 +38983,7 @@
         <v>-3.930160378507785</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>19</v>
       </c>
@@ -39033,7 +39015,7 @@
         <v>-3.930160378507785</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>34</v>
       </c>
@@ -39065,7 +39047,7 @@
         <v>-3.930160378507785</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>47</v>
       </c>
@@ -39097,7 +39079,7 @@
         <v>-3.930160378507785</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>12</v>
       </c>
@@ -39129,7 +39111,7 @@
         <v>-3.930160378507785</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>60</v>
       </c>
@@ -39161,7 +39143,7 @@
         <v>-3.930160378507785</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>43</v>
       </c>
@@ -39193,7 +39175,7 @@
         <v>-3.930160378507785</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>56</v>
       </c>
@@ -39225,7 +39207,7 @@
         <v>-3.930160378507785</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>29</v>
       </c>
@@ -39257,7 +39239,7 @@
         <v>-3.930160378507785</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>52</v>
       </c>
@@ -39289,7 +39271,7 @@
         <v>-3.9426828892496379</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>38</v>
       </c>
@@ -39321,7 +39303,7 @@
         <v>-3.9426828892496379</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>19</v>
       </c>
@@ -39353,7 +39335,7 @@
         <v>-3.9426828892496379</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>34</v>
       </c>
@@ -39385,7 +39367,7 @@
         <v>-3.9426828892496379</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>47</v>
       </c>
@@ -39417,7 +39399,7 @@
         <v>-3.9426828892496379</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>12</v>
       </c>
@@ -39449,7 +39431,7 @@
         <v>-3.9426828892496379</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>60</v>
       </c>
@@ -39481,7 +39463,7 @@
         <v>-3.9426828892496379</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>43</v>
       </c>
@@ -39513,7 +39495,7 @@
         <v>-3.9426828892496379</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>56</v>
       </c>
@@ -39545,7 +39527,7 @@
         <v>-3.9426828892496379</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>29</v>
       </c>
@@ -39577,7 +39559,7 @@
         <v>-3.9426828892496379</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>52</v>
       </c>
@@ -39609,7 +39591,7 @@
         <v>-4.0588805485316293</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>38</v>
       </c>
@@ -39641,7 +39623,7 @@
         <v>-4.0588805485316293</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>19</v>
       </c>
@@ -39673,7 +39655,7 @@
         <v>-4.0588805485316293</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>34</v>
       </c>
@@ -39705,7 +39687,7 @@
         <v>-4.0588805485316293</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>47</v>
       </c>
@@ -39737,7 +39719,7 @@
         <v>-4.0588805485316293</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>12</v>
       </c>
@@ -39769,7 +39751,7 @@
         <v>-4.0588805485316293</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>60</v>
       </c>
@@ -39801,7 +39783,7 @@
         <v>-4.0588805485316293</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>43</v>
       </c>
@@ -39833,7 +39815,7 @@
         <v>-4.0588805485316293</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>56</v>
       </c>
@@ -39865,7 +39847,7 @@
         <v>-4.0588805485316293</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>29</v>
       </c>
@@ -39897,7 +39879,7 @@
         <v>-4.0588805485316293</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>52</v>
       </c>
@@ -39929,7 +39911,7 @@
         <v>-4.0930847416168481</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>38</v>
       </c>
@@ -39961,7 +39943,7 @@
         <v>-4.0930847416168481</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>19</v>
       </c>
@@ -39993,7 +39975,7 @@
         <v>-4.0930847416168481</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>34</v>
       </c>
@@ -40025,7 +40007,7 @@
         <v>-4.0930847416168481</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>47</v>
       </c>
@@ -40057,7 +40039,7 @@
         <v>-4.0930847416168481</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>12</v>
       </c>
@@ -40089,7 +40071,7 @@
         <v>-4.0930847416168481</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>60</v>
       </c>
@@ -40121,7 +40103,7 @@
         <v>-4.0930847416168481</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>43</v>
       </c>
@@ -40153,7 +40135,7 @@
         <v>-4.0930847416168481</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>56</v>
       </c>
@@ -40185,7 +40167,7 @@
         <v>-4.0930847416168481</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>29</v>
       </c>
@@ -40217,7 +40199,7 @@
         <v>-4.0930847416168481</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>52</v>
       </c>
@@ -40249,7 +40231,7 @@
         <v>-4.2438115118644593</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>38</v>
       </c>
@@ -40281,7 +40263,7 @@
         <v>-4.2438115118644593</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>19</v>
       </c>
@@ -40313,7 +40295,7 @@
         <v>-4.2438115118644593</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>34</v>
       </c>
@@ -40345,7 +40327,7 @@
         <v>-4.2438115118644593</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>47</v>
       </c>
@@ -40377,7 +40359,7 @@
         <v>-4.2438115118644593</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>12</v>
       </c>
@@ -40409,7 +40391,7 @@
         <v>-4.2438115118644593</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>60</v>
       </c>
@@ -40441,7 +40423,7 @@
         <v>-4.2438115118644593</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>43</v>
       </c>
@@ -40473,7 +40455,7 @@
         <v>-4.2438115118644593</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>56</v>
       </c>
@@ -40505,7 +40487,7 @@
         <v>-4.2438115118644593</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>29</v>
       </c>
@@ -40537,7 +40519,7 @@
         <v>-4.2438115118644593</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>52</v>
       </c>
@@ -40569,7 +40551,7 @@
         <v>-4.5160575693811484</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>38</v>
       </c>
@@ -40601,7 +40583,7 @@
         <v>-4.5160575693811484</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>19</v>
       </c>
@@ -40633,7 +40615,7 @@
         <v>-4.5160575693811484</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>34</v>
       </c>
@@ -40665,7 +40647,7 @@
         <v>-4.5160575693811484</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>47</v>
       </c>
@@ -40697,7 +40679,7 @@
         <v>-4.5160575693811484</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>12</v>
       </c>
@@ -40729,7 +40711,7 @@
         <v>-4.5160575693811484</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>60</v>
       </c>
@@ -40761,7 +40743,7 @@
         <v>-4.5160575693811484</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>43</v>
       </c>
@@ -40793,7 +40775,7 @@
         <v>-4.5160575693811484</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>56</v>
       </c>
@@ -40825,7 +40807,7 @@
         <v>-4.5160575693811484</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>29</v>
       </c>
@@ -40857,7 +40839,7 @@
         <v>-4.5160575693811484</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>52</v>
       </c>
@@ -40889,7 +40871,7 @@
         <v>-4.6343188962819077</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>38</v>
       </c>
@@ -40921,7 +40903,7 @@
         <v>-4.6343188962819077</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>19</v>
       </c>
@@ -40953,7 +40935,7 @@
         <v>-4.6343188962819077</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>34</v>
       </c>
@@ -40985,7 +40967,7 @@
         <v>-4.6343188962819077</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>47</v>
       </c>
@@ -41017,7 +40999,7 @@
         <v>-4.6343188962819077</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>12</v>
       </c>
@@ -41049,7 +41031,7 @@
         <v>-4.6343188962819077</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>60</v>
       </c>
@@ -41081,7 +41063,7 @@
         <v>-4.6343188962819077</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>43</v>
       </c>
@@ -41113,7 +41095,7 @@
         <v>-4.6343188962819077</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>56</v>
       </c>
@@ -41145,7 +41127,7 @@
         <v>-4.6343188962819077</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>29</v>
       </c>
@@ -41177,7 +41159,7 @@
         <v>-4.6343188962819077</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>52</v>
       </c>
@@ -41209,7 +41191,7 @@
         <v>-4.5905867058931289</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>38</v>
       </c>
@@ -41241,7 +41223,7 @@
         <v>-4.5905867058931289</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>19</v>
       </c>
@@ -41273,7 +41255,7 @@
         <v>-4.5905867058931289</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>34</v>
       </c>
@@ -41305,7 +41287,7 @@
         <v>-4.5905867058931289</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>47</v>
       </c>
@@ -41337,7 +41319,7 @@
         <v>-4.5905867058931289</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>12</v>
       </c>
@@ -41369,7 +41351,7 @@
         <v>-4.5905867058931289</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>60</v>
       </c>
@@ -41401,7 +41383,7 @@
         <v>-4.5905867058931289</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>43</v>
       </c>
@@ -41433,7 +41415,7 @@
         <v>-4.5905867058931289</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>56</v>
       </c>
@@ -41465,7 +41447,7 @@
         <v>-4.5905867058931289</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>29</v>
       </c>
@@ -41497,7 +41479,7 @@
         <v>-4.5905867058931289</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>52</v>
       </c>
@@ -41529,7 +41511,7 @@
         <v>-4.6856734845135524</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>38</v>
       </c>
@@ -41561,7 +41543,7 @@
         <v>-4.6856734845135524</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>19</v>
       </c>
@@ -41593,7 +41575,7 @@
         <v>-4.6856734845135524</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>34</v>
       </c>
@@ -41625,7 +41607,7 @@
         <v>-4.6856734845135524</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>47</v>
       </c>
@@ -41657,7 +41639,7 @@
         <v>-4.6856734845135524</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>12</v>
       </c>
@@ -41689,7 +41671,7 @@
         <v>-4.6856734845135524</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>60</v>
       </c>
@@ -41721,7 +41703,7 @@
         <v>-4.6856734845135524</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>43</v>
       </c>
@@ -41753,7 +41735,7 @@
         <v>-4.6856734845135524</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>56</v>
       </c>
@@ -41785,7 +41767,7 @@
         <v>-4.6856734845135524</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>29</v>
       </c>
@@ -41817,7 +41799,7 @@
         <v>-4.6856734845135524</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>52</v>
       </c>
@@ -41849,7 +41831,7 @@
         <v>-4.7106043456608946</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>38</v>
       </c>
@@ -41881,7 +41863,7 @@
         <v>-4.7106043456608946</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>19</v>
       </c>
@@ -41913,7 +41895,7 @@
         <v>-4.7106043456608946</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>34</v>
       </c>
@@ -41945,7 +41927,7 @@
         <v>-4.7106043456608946</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>47</v>
       </c>
@@ -41977,7 +41959,7 @@
         <v>-4.7106043456608946</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>12</v>
       </c>
@@ -42009,7 +41991,7 @@
         <v>-4.7106043456608946</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>60</v>
       </c>
@@ -42041,7 +42023,7 @@
         <v>-4.7106043456608946</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>43</v>
       </c>
@@ -42073,7 +42055,7 @@
         <v>-4.7106043456608946</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>56</v>
       </c>
@@ -42105,7 +42087,7 @@
         <v>-4.7106043456608946</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>29</v>
       </c>
@@ -42137,7 +42119,7 @@
         <v>-4.7106043456608946</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>52</v>
       </c>
@@ -42169,7 +42151,7 @@
         <v>-4.7166460619234467</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>38</v>
       </c>
@@ -42201,7 +42183,7 @@
         <v>-4.7166460619234467</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>19</v>
       </c>
@@ -42233,7 +42215,7 @@
         <v>-4.7166460619234467</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>34</v>
       </c>
@@ -42265,7 +42247,7 @@
         <v>-4.7166460619234467</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>47</v>
       </c>
@@ -42297,7 +42279,7 @@
         <v>-4.7166460619234467</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>12</v>
       </c>
@@ -42329,7 +42311,7 @@
         <v>-4.7166460619234467</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>60</v>
       </c>
@@ -42361,7 +42343,7 @@
         <v>-4.7166460619234467</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>43</v>
       </c>
@@ -42393,7 +42375,7 @@
         <v>-4.7166460619234467</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>56</v>
       </c>
@@ -42425,7 +42407,7 @@
         <v>-4.7166460619234467</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>29</v>
       </c>
@@ -42457,7 +42439,7 @@
         <v>-4.7166460619234467</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>52</v>
       </c>
@@ -42489,7 +42471,7 @@
         <v>-4.8080884913448196</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>38</v>
       </c>
@@ -42521,7 +42503,7 @@
         <v>-4.8080884913448196</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>19</v>
       </c>
@@ -42553,7 +42535,7 @@
         <v>-4.8080884913448196</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>34</v>
       </c>
@@ -42585,7 +42567,7 @@
         <v>-4.8080884913448196</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>47</v>
       </c>
@@ -42617,7 +42599,7 @@
         <v>-4.8080884913448196</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>12</v>
       </c>
@@ -42649,7 +42631,7 @@
         <v>-4.8080884913448196</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>60</v>
       </c>
@@ -42681,7 +42663,7 @@
         <v>-4.8080884913448196</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>43</v>
       </c>
@@ -42713,7 +42695,7 @@
         <v>-4.8080884913448196</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>56</v>
       </c>
@@ -42745,7 +42727,7 @@
         <v>-4.8080884913448196</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>29</v>
       </c>
@@ -42777,7 +42759,7 @@
         <v>-4.8080884913448196</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>52</v>
       </c>
@@ -42809,7 +42791,7 @@
         <v>-4.8147536986751556</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>38</v>
       </c>
@@ -42841,7 +42823,7 @@
         <v>-4.8147536986751556</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>19</v>
       </c>
@@ -42873,7 +42855,7 @@
         <v>-4.8147536986751556</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>34</v>
       </c>
@@ -42905,7 +42887,7 @@
         <v>-4.8147536986751556</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>47</v>
       </c>
@@ -42937,7 +42919,7 @@
         <v>-4.8147536986751556</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>12</v>
       </c>
@@ -42969,7 +42951,7 @@
         <v>-4.8147536986751556</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>60</v>
       </c>
@@ -43001,7 +42983,7 @@
         <v>-4.8147536986751556</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>43</v>
       </c>
@@ -43033,7 +43015,7 @@
         <v>-4.8147536986751556</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>56</v>
       </c>
@@ -43065,7 +43047,7 @@
         <v>-4.8147536986751556</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>29</v>
       </c>
@@ -43097,7 +43079,7 @@
         <v>-4.8147536986751556</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>52</v>
       </c>
@@ -43129,7 +43111,7 @@
         <v>-4.8131730170948286</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>38</v>
       </c>
@@ -43161,7 +43143,7 @@
         <v>-4.8131730170948286</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>19</v>
       </c>
@@ -43193,7 +43175,7 @@
         <v>-4.8131730170948286</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>34</v>
       </c>
@@ -43225,7 +43207,7 @@
         <v>-4.8131730170948286</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>47</v>
       </c>
@@ -43257,7 +43239,7 @@
         <v>-4.8131730170948286</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>12</v>
       </c>
@@ -43289,7 +43271,7 @@
         <v>-4.8131730170948286</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>60</v>
       </c>
@@ -43321,7 +43303,7 @@
         <v>-4.8131730170948286</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>43</v>
       </c>
@@ -43353,7 +43335,7 @@
         <v>-4.8131730170948286</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>56</v>
       </c>
@@ -43385,7 +43367,7 @@
         <v>-4.8131730170948286</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>29</v>
       </c>
@@ -43417,7 +43399,7 @@
         <v>-4.8131730170948286</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>52</v>
       </c>
@@ -43449,7 +43431,7 @@
         <v>-4.9542225034451706</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>38</v>
       </c>
@@ -43481,7 +43463,7 @@
         <v>-4.9542225034451706</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>19</v>
       </c>
@@ -43513,7 +43495,7 @@
         <v>-4.9542225034451706</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>34</v>
       </c>
@@ -43545,7 +43527,7 @@
         <v>-4.9542225034451706</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>47</v>
       </c>
@@ -43577,7 +43559,7 @@
         <v>-4.9542225034451706</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>12</v>
       </c>
@@ -43609,7 +43591,7 @@
         <v>-4.9542225034451706</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>60</v>
       </c>
@@ -43641,7 +43623,7 @@
         <v>-4.9542225034451706</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>43</v>
       </c>
@@ -43673,7 +43655,7 @@
         <v>-4.9542225034451706</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>56</v>
       </c>
@@ -43705,7 +43687,7 @@
         <v>-4.9542225034451706</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>29</v>
       </c>
@@ -43737,7 +43719,7 @@
         <v>-4.9542225034451706</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>52</v>
       </c>
@@ -43769,7 +43751,7 @@
         <v>-4.8947361866392143</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>38</v>
       </c>
@@ -43801,7 +43783,7 @@
         <v>-4.8947361866392143</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>19</v>
       </c>
@@ -43833,7 +43815,7 @@
         <v>-4.8947361866392143</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>34</v>
       </c>
@@ -43865,7 +43847,7 @@
         <v>-4.8947361866392143</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>47</v>
       </c>
@@ -43897,7 +43879,7 @@
         <v>-4.8947361866392143</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>12</v>
       </c>
@@ -43929,7 +43911,7 @@
         <v>-4.8947361866392143</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>60</v>
       </c>
@@ -43961,7 +43943,7 @@
         <v>-4.8947361866392143</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>43</v>
       </c>
@@ -43993,7 +43975,7 @@
         <v>-4.8947361866392143</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>56</v>
       </c>
@@ -44025,7 +44007,7 @@
         <v>-4.8947361866392143</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>29</v>
       </c>
@@ -44057,7 +44039,7 @@
         <v>-4.8947361866392143</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>52</v>
       </c>
@@ -44089,7 +44071,7 @@
         <v>-4.8293047507783964</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>38</v>
       </c>
@@ -44121,7 +44103,7 @@
         <v>-4.8293047507783964</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>19</v>
       </c>
@@ -44153,7 +44135,7 @@
         <v>-4.8293047507783964</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>34</v>
       </c>
@@ -44185,7 +44167,7 @@
         <v>-4.8293047507783964</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>47</v>
       </c>
@@ -44217,7 +44199,7 @@
         <v>-4.8293047507783964</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>12</v>
       </c>
@@ -44249,7 +44231,7 @@
         <v>-4.8293047507783964</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>60</v>
       </c>
@@ -44281,7 +44263,7 @@
         <v>-4.8293047507783964</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>43</v>
       </c>
@@ -44313,7 +44295,7 @@
         <v>-4.8293047507783964</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>56</v>
       </c>
@@ -44345,7 +44327,7 @@
         <v>-4.8293047507783964</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>29</v>
       </c>
@@ -44377,7 +44359,7 @@
         <v>-4.8293047507783964</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>52</v>
       </c>
@@ -44409,7 +44391,7 @@
         <v>-4.8583014762129011</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>38</v>
       </c>
@@ -44441,7 +44423,7 @@
         <v>-4.8583014762129011</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>19</v>
       </c>
@@ -44473,7 +44455,7 @@
         <v>-4.8583014762129011</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>34</v>
       </c>
@@ -44505,7 +44487,7 @@
         <v>-4.8583014762129011</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>47</v>
       </c>
@@ -44537,7 +44519,7 @@
         <v>-4.8583014762129011</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>12</v>
       </c>
@@ -44569,7 +44551,7 @@
         <v>-4.8583014762129011</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>60</v>
       </c>
@@ -44601,7 +44583,7 @@
         <v>-4.8583014762129011</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>43</v>
       </c>
@@ -44633,7 +44615,7 @@
         <v>-4.8583014762129011</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>56</v>
       </c>
@@ -44665,7 +44647,7 @@
         <v>-4.8583014762129011</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>29</v>
       </c>
@@ -44697,7 +44679,7 @@
         <v>-4.8583014762129011</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>52</v>
       </c>
@@ -44729,7 +44711,7 @@
         <v>-4.8039084667213068</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>38</v>
       </c>
@@ -44761,7 +44743,7 @@
         <v>-4.8039084667213068</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>19</v>
       </c>
@@ -44793,7 +44775,7 @@
         <v>-4.8039084667213068</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>34</v>
       </c>
@@ -44825,7 +44807,7 @@
         <v>-4.8039084667213068</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>47</v>
       </c>
@@ -44857,7 +44839,7 @@
         <v>-4.8039084667213068</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>12</v>
       </c>
@@ -44889,7 +44871,7 @@
         <v>-4.8039084667213068</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>60</v>
       </c>
@@ -44921,7 +44903,7 @@
         <v>-4.8039084667213068</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>43</v>
       </c>
@@ -44953,7 +44935,7 @@
         <v>-4.8039084667213068</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>56</v>
       </c>
@@ -44985,7 +44967,7 @@
         <v>-4.8039084667213068</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>29</v>
       </c>
@@ -45017,7 +44999,7 @@
         <v>-4.8039084667213068</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>52</v>
       </c>
@@ -45049,7 +45031,7 @@
         <v>-4.0823975778210286</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>38</v>
       </c>
@@ -45081,7 +45063,7 @@
         <v>-4.0823975778210286</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>19</v>
       </c>
@@ -45113,7 +45095,7 @@
         <v>-4.0823975778210286</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>34</v>
       </c>
@@ -45145,7 +45127,7 @@
         <v>-4.0823975778210286</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>47</v>
       </c>
@@ -45177,7 +45159,7 @@
         <v>-4.0823975778210286</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>12</v>
       </c>
@@ -45209,7 +45191,7 @@
         <v>-4.0823975778210286</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>60</v>
       </c>
@@ -45241,7 +45223,7 @@
         <v>-4.0823975778210286</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>43</v>
       </c>
@@ -45273,7 +45255,7 @@
         <v>-4.0823975778210286</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>56</v>
       </c>
@@ -45305,7 +45287,7 @@
         <v>-4.0823975778210286</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>29</v>
       </c>
@@ -45337,7 +45319,7 @@
         <v>-4.0823975778210286</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>52</v>
       </c>
@@ -45369,7 +45351,7 @@
         <v>-3.44129947353724</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>38</v>
       </c>
@@ -45401,7 +45383,7 @@
         <v>-3.44129947353724</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>19</v>
       </c>
@@ -45433,7 +45415,7 @@
         <v>-3.44129947353724</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>34</v>
       </c>
@@ -45465,7 +45447,7 @@
         <v>-3.44129947353724</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>47</v>
       </c>
@@ -45497,7 +45479,7 @@
         <v>-3.44129947353724</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>12</v>
       </c>
@@ -45529,7 +45511,7 @@
         <v>-3.44129947353724</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>60</v>
       </c>
@@ -45561,7 +45543,7 @@
         <v>-3.44129947353724</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>43</v>
       </c>
@@ -45593,7 +45575,7 @@
         <v>-3.44129947353724</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>56</v>
       </c>
@@ -45625,7 +45607,7 @@
         <v>-3.44129947353724</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>29</v>
       </c>
@@ -45657,7 +45639,7 @@
         <v>-3.44129947353724</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>52</v>
       </c>
@@ -45689,7 +45671,7 @@
         <v>-3.0183617720302758</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>38</v>
       </c>
@@ -45721,7 +45703,7 @@
         <v>-3.0183617720302758</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>19</v>
       </c>
@@ -45753,7 +45735,7 @@
         <v>-3.0183617720302758</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>34</v>
       </c>
@@ -45785,7 +45767,7 @@
         <v>-3.0183617720302758</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>47</v>
       </c>
@@ -45817,7 +45799,7 @@
         <v>-3.0183617720302758</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>12</v>
       </c>
@@ -45849,7 +45831,7 @@
         <v>-3.0183617720302758</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>60</v>
       </c>
@@ -45881,7 +45863,7 @@
         <v>-3.0183617720302758</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>43</v>
       </c>
@@ -45913,7 +45895,7 @@
         <v>-3.0183617720302758</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>56</v>
       </c>
@@ -45945,7 +45927,7 @@
         <v>-3.0183617720302758</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>29</v>
       </c>
@@ -45977,7 +45959,7 @@
         <v>-3.0183617720302758</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>52</v>
       </c>
@@ -46009,7 +45991,7 @@
         <v>-2.7396876094202942</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>38</v>
       </c>
@@ -46041,7 +46023,7 @@
         <v>-2.7396876094202942</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>19</v>
       </c>
@@ -46073,7 +46055,7 @@
         <v>-2.7396876094202942</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>34</v>
       </c>
@@ -46105,7 +46087,7 @@
         <v>-2.7396876094202942</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>47</v>
       </c>
@@ -46137,7 +46119,7 @@
         <v>-2.7396876094202942</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>12</v>
       </c>
@@ -46169,7 +46151,7 @@
         <v>-2.7396876094202942</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>60</v>
       </c>
@@ -46201,7 +46183,7 @@
         <v>-2.7396876094202942</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>43</v>
       </c>
@@ -46233,7 +46215,7 @@
         <v>-2.7396876094202942</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>56</v>
       </c>
@@ -46265,7 +46247,7 @@
         <v>-2.7396876094202942</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>29</v>
       </c>
@@ -46297,7 +46279,7 @@
         <v>-2.7396876094202942</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>52</v>
       </c>
@@ -46329,7 +46311,7 @@
         <v>-2.5230991066594428</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>38</v>
       </c>
@@ -46361,7 +46343,7 @@
         <v>-2.5230991066594428</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>19</v>
       </c>
@@ -46393,7 +46375,7 @@
         <v>-2.5230991066594428</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>34</v>
       </c>
@@ -46425,7 +46407,7 @@
         <v>-2.5230991066594428</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>47</v>
       </c>
@@ -46457,7 +46439,7 @@
         <v>-2.5230991066594428</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>12</v>
       </c>
@@ -46489,7 +46471,7 @@
         <v>-2.5230991066594428</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>60</v>
       </c>
@@ -46521,7 +46503,7 @@
         <v>-2.5230991066594428</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>43</v>
       </c>
@@ -46553,7 +46535,7 @@
         <v>-2.5230991066594428</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>56</v>
       </c>
@@ -46585,7 +46567,7 @@
         <v>-2.5230991066594428</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>29</v>
       </c>
@@ -46617,7 +46599,7 @@
         <v>-2.5230991066594428</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>52</v>
       </c>
@@ -46649,7 +46631,7 @@
         <v>-2.1462382732187262</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>38</v>
       </c>
@@ -46681,7 +46663,7 @@
         <v>-2.1462382732187262</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>19</v>
       </c>
@@ -46713,7 +46695,7 @@
         <v>-2.1462382732187262</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>34</v>
       </c>
@@ -46745,7 +46727,7 @@
         <v>-2.1462382732187262</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>47</v>
       </c>
@@ -46777,7 +46759,7 @@
         <v>-2.1462382732187262</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>12</v>
       </c>
@@ -46809,7 +46791,7 @@
         <v>-2.1462382732187262</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>60</v>
       </c>
@@ -46841,7 +46823,7 @@
         <v>-2.1462382732187262</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>43</v>
       </c>
@@ -46873,7 +46855,7 @@
         <v>-2.1462382732187262</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>56</v>
       </c>
@@ -46905,7 +46887,7 @@
         <v>-2.1462382732187262</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>29</v>
       </c>
@@ -46937,7 +46919,7 @@
         <v>-2.1462382732187262</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>52</v>
       </c>
@@ -46969,7 +46951,7 @@
         <v>-1.8556036199843471</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>38</v>
       </c>
@@ -47001,7 +46983,7 @@
         <v>-1.8556036199843471</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>19</v>
       </c>
@@ -47033,7 +47015,7 @@
         <v>-1.8556036199843471</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>34</v>
       </c>
@@ -47065,7 +47047,7 @@
         <v>-1.8556036199843471</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>47</v>
       </c>
@@ -47097,7 +47079,7 @@
         <v>-1.8556036199843471</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>12</v>
       </c>
@@ -47129,7 +47111,7 @@
         <v>-1.8556036199843471</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>60</v>
       </c>
@@ -47161,7 +47143,7 @@
         <v>-1.8556036199843471</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>43</v>
       </c>
@@ -47193,7 +47175,7 @@
         <v>-1.8556036199843471</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>56</v>
       </c>
@@ -47225,7 +47207,7 @@
         <v>-1.8556036199843471</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>29</v>
       </c>
@@ -47257,7 +47239,7 @@
         <v>-1.8556036199843471</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>52</v>
       </c>
@@ -47289,7 +47271,7 @@
         <v>-1.6508438843828801</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>38</v>
       </c>
@@ -47321,7 +47303,7 @@
         <v>-1.6508438843828801</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>19</v>
       </c>
@@ -47353,7 +47335,7 @@
         <v>-1.6508438843828801</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>34</v>
       </c>
@@ -47385,7 +47367,7 @@
         <v>-1.6508438843828801</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>47</v>
       </c>
@@ -47417,7 +47399,7 @@
         <v>-1.6508438843828801</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>12</v>
       </c>
@@ -47449,7 +47431,7 @@
         <v>-1.6508438843828801</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>60</v>
       </c>
@@ -47481,7 +47463,7 @@
         <v>-1.6508438843828801</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>43</v>
       </c>
@@ -47513,7 +47495,7 @@
         <v>-1.6508438843828801</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>56</v>
       </c>
@@ -47545,7 +47527,7 @@
         <v>-1.6508438843828801</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>29</v>
       </c>
@@ -47577,7 +47559,7 @@
         <v>-1.6508438843828801</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>52</v>
       </c>
@@ -47609,7 +47591,7 @@
         <v>-1.307339423907028</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>38</v>
       </c>
@@ -47641,7 +47623,7 @@
         <v>-1.307339423907028</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>19</v>
       </c>
@@ -47673,7 +47655,7 @@
         <v>-1.307339423907028</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>34</v>
       </c>
@@ -47705,7 +47687,7 @@
         <v>-1.307339423907028</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>47</v>
       </c>
@@ -47737,7 +47719,7 @@
         <v>-1.307339423907028</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>12</v>
       </c>
@@ -47769,7 +47751,7 @@
         <v>-1.307339423907028</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>60</v>
       </c>
@@ -47801,7 +47783,7 @@
         <v>-1.307339423907028</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>43</v>
       </c>
@@ -47833,7 +47815,7 @@
         <v>-1.307339423907028</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>56</v>
       </c>
@@ -47865,7 +47847,7 @@
         <v>-1.307339423907028</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>29</v>
       </c>
@@ -48186,6 +48168,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J490" xr:uid="{00000000-0001-0000-0400-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <dateGroupItem year="2023" month="12" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
